--- a/Code/Results/Cases/Case_1_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015956840599918</v>
+        <v>1.04742086062181</v>
       </c>
       <c r="D2">
-        <v>1.046372654403377</v>
+        <v>1.047682729875347</v>
       </c>
       <c r="E2">
-        <v>1.028641948387749</v>
+        <v>1.054428496499307</v>
       </c>
       <c r="F2">
-        <v>1.036378274563491</v>
+        <v>1.064124011899746</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058766627477417</v>
+        <v>1.046784447897723</v>
       </c>
       <c r="J2">
-        <v>1.037670539368286</v>
+        <v>1.052470020235141</v>
       </c>
       <c r="K2">
-        <v>1.057221645835393</v>
+        <v>1.050444683892116</v>
       </c>
       <c r="L2">
-        <v>1.039716171375407</v>
+        <v>1.057171733440442</v>
       </c>
       <c r="M2">
-        <v>1.04735303994828</v>
+        <v>1.066840797224516</v>
       </c>
       <c r="N2">
-        <v>1.015797526029126</v>
+        <v>1.021256813391929</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021549201280567</v>
+        <v>1.048575128183609</v>
       </c>
       <c r="D3">
-        <v>1.049753355108949</v>
+        <v>1.04835470381929</v>
       </c>
       <c r="E3">
-        <v>1.033419064971501</v>
+        <v>1.05546374015635</v>
       </c>
       <c r="F3">
-        <v>1.041597089076181</v>
+        <v>1.065262841562896</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06073958739165</v>
+        <v>1.047107889716463</v>
       </c>
       <c r="J3">
-        <v>1.041469167452023</v>
+        <v>1.053271747076397</v>
       </c>
       <c r="K3">
-        <v>1.059786878003332</v>
+        <v>1.050928914006978</v>
       </c>
       <c r="L3">
-        <v>1.043641479228012</v>
+        <v>1.058019650951801</v>
       </c>
       <c r="M3">
-        <v>1.051724016889213</v>
+        <v>1.067793959835154</v>
       </c>
       <c r="N3">
-        <v>1.017116323994816</v>
+        <v>1.02153024344587</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025082411800005</v>
+        <v>1.049321926399497</v>
       </c>
       <c r="D4">
-        <v>1.051891683274586</v>
+        <v>1.048789227558983</v>
       </c>
       <c r="E4">
-        <v>1.036443070057959</v>
+        <v>1.056133861673451</v>
       </c>
       <c r="F4">
-        <v>1.044901089127086</v>
+        <v>1.066000116533871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061975063050007</v>
+        <v>1.047315733170069</v>
       </c>
       <c r="J4">
-        <v>1.043865563620972</v>
+        <v>1.053789880939701</v>
       </c>
       <c r="K4">
-        <v>1.061401702206688</v>
+        <v>1.051241274116438</v>
       </c>
       <c r="L4">
-        <v>1.046120689082514</v>
+        <v>1.058567953980018</v>
       </c>
       <c r="M4">
-        <v>1.05448619520411</v>
+        <v>1.068410508649997</v>
       </c>
       <c r="N4">
-        <v>1.017947615854943</v>
+        <v>1.02170678621664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026548196307943</v>
+        <v>1.049635859937461</v>
       </c>
       <c r="D5">
-        <v>1.052779256538104</v>
+        <v>1.048971831544739</v>
       </c>
       <c r="E5">
-        <v>1.03769895669496</v>
+        <v>1.05641564091511</v>
       </c>
       <c r="F5">
-        <v>1.046273360952848</v>
+        <v>1.066310157472909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062484906649903</v>
+        <v>1.047402764575952</v>
       </c>
       <c r="J5">
-        <v>1.044858835430499</v>
+        <v>1.05400755237561</v>
       </c>
       <c r="K5">
-        <v>1.062070134281584</v>
+        <v>1.051372357894704</v>
       </c>
       <c r="L5">
-        <v>1.047148979011727</v>
+        <v>1.058798375683013</v>
       </c>
       <c r="M5">
-        <v>1.055632208400463</v>
+        <v>1.06866965567364</v>
       </c>
       <c r="N5">
-        <v>1.01829200001314</v>
+        <v>1.021780912738851</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026793184342397</v>
+        <v>1.049688569594716</v>
       </c>
       <c r="D6">
-        <v>1.05292762791412</v>
+        <v>1.04900248744228</v>
       </c>
       <c r="E6">
-        <v>1.037908940712344</v>
+        <v>1.05646295642859</v>
       </c>
       <c r="F6">
-        <v>1.046502810748024</v>
+        <v>1.066362220035322</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062569960086214</v>
+        <v>1.047417357242262</v>
       </c>
       <c r="J6">
-        <v>1.045024794865022</v>
+        <v>1.05404409146522</v>
       </c>
       <c r="K6">
-        <v>1.062181764431266</v>
+        <v>1.051394353797608</v>
       </c>
       <c r="L6">
-        <v>1.047320830103379</v>
+        <v>1.058837059534752</v>
       </c>
       <c r="M6">
-        <v>1.055823754860375</v>
+        <v>1.068713164674435</v>
       </c>
       <c r="N6">
-        <v>1.01834953040284</v>
+        <v>1.021793353511289</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025102073493702</v>
+        <v>1.049326121273655</v>
       </c>
       <c r="D7">
-        <v>1.051903587272188</v>
+        <v>1.048791667797597</v>
       </c>
       <c r="E7">
-        <v>1.036459910962104</v>
+        <v>1.056137626584609</v>
       </c>
       <c r="F7">
-        <v>1.044919490295296</v>
+        <v>1.066004258959656</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061981912742532</v>
+        <v>1.047316897447499</v>
       </c>
       <c r="J7">
-        <v>1.043878890732867</v>
+        <v>1.053792790072919</v>
       </c>
       <c r="K7">
-        <v>1.061410674407848</v>
+        <v>1.051243026578021</v>
       </c>
       <c r="L7">
-        <v>1.046134483307718</v>
+        <v>1.058571033219141</v>
       </c>
       <c r="M7">
-        <v>1.054501567237953</v>
+        <v>1.068413971581504</v>
       </c>
       <c r="N7">
-        <v>1.01795223729371</v>
+        <v>1.021707777060518</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017865034841435</v>
+        <v>1.047810970082252</v>
       </c>
       <c r="D8">
-        <v>1.04752561669847</v>
+        <v>1.047909885858933</v>
       </c>
       <c r="E8">
-        <v>1.030270703263156</v>
+        <v>1.054778310484578</v>
       </c>
       <c r="F8">
-        <v>1.038157548598473</v>
+        <v>1.064508807170462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059442110078993</v>
+        <v>1.046894055755357</v>
       </c>
       <c r="J8">
-        <v>1.038967404475189</v>
+        <v>1.052741099751065</v>
       </c>
       <c r="K8">
-        <v>1.058098121221399</v>
+        <v>1.05060853216073</v>
       </c>
       <c r="L8">
-        <v>1.041055674613354</v>
+        <v>1.057458365154212</v>
       </c>
       <c r="M8">
-        <v>1.048844315362314</v>
+        <v>1.067162966976887</v>
       </c>
       <c r="N8">
-        <v>1.016247905443908</v>
+        <v>1.02134930005775</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004416039392975</v>
+        <v>1.045140339139366</v>
       </c>
       <c r="D9">
-        <v>1.03941487251746</v>
+        <v>1.04635389842871</v>
       </c>
       <c r="E9">
-        <v>1.018818691010584</v>
+        <v>1.052384915845204</v>
       </c>
       <c r="F9">
-        <v>1.025648552591097</v>
+        <v>1.061876486195079</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054636744635994</v>
+        <v>1.046137888779833</v>
       </c>
       <c r="J9">
-        <v>1.029813813915429</v>
+        <v>1.050882987150078</v>
       </c>
       <c r="K9">
-        <v>1.051899274690269</v>
+        <v>1.04948306631263</v>
       </c>
       <c r="L9">
-        <v>1.031613652130647</v>
+        <v>1.055494954269451</v>
       </c>
       <c r="M9">
-        <v>1.038338767975094</v>
+        <v>1.0649568995161</v>
       </c>
       <c r="N9">
-        <v>1.013066541941546</v>
+        <v>1.020714668410616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9949177626286071</v>
+        <v>1.043359346374218</v>
       </c>
       <c r="D10">
-        <v>1.033712208621711</v>
+        <v>1.045315154211427</v>
       </c>
       <c r="E10">
-        <v>1.010768793027948</v>
+        <v>1.050790564780289</v>
       </c>
       <c r="F10">
-        <v>1.016856996081555</v>
+        <v>1.060123489574345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051189143034954</v>
+        <v>1.045626337447466</v>
       </c>
       <c r="J10">
-        <v>1.023334482137012</v>
+        <v>1.049640919015335</v>
       </c>
       <c r="K10">
-        <v>1.047498336040546</v>
+        <v>1.04872779768237</v>
       </c>
       <c r="L10">
-        <v>1.024946298138166</v>
+        <v>1.05418413760006</v>
       </c>
       <c r="M10">
-        <v>1.030928419356764</v>
+        <v>1.063485055461225</v>
       </c>
       <c r="N10">
-        <v>1.010811978987546</v>
+        <v>1.020289593034575</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9906626945121468</v>
+        <v>1.042588003868028</v>
       </c>
       <c r="D11">
-        <v>1.03116561384217</v>
+        <v>1.044865038363987</v>
       </c>
       <c r="E11">
-        <v>1.007172645311542</v>
+        <v>1.05010048139519</v>
       </c>
       <c r="F11">
-        <v>1.012929708958862</v>
+        <v>1.059364860526004</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049632899745124</v>
+        <v>1.045403064840874</v>
       </c>
       <c r="J11">
-        <v>1.020429142292655</v>
+        <v>1.049102292924089</v>
       </c>
       <c r="K11">
-        <v>1.04552278983142</v>
+        <v>1.048399585894056</v>
       </c>
       <c r="L11">
-        <v>1.021960551954134</v>
+        <v>1.053616087334093</v>
       </c>
       <c r="M11">
-        <v>1.027611840849303</v>
+        <v>1.062847454271467</v>
       </c>
       <c r="N11">
-        <v>1.009800572589221</v>
+        <v>1.020105057917146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9890592951505744</v>
+        <v>1.042301467154079</v>
       </c>
       <c r="D12">
-        <v>1.030207407934005</v>
+        <v>1.044697795921619</v>
       </c>
       <c r="E12">
-        <v>1.005819150926086</v>
+        <v>1.049844195218853</v>
       </c>
       <c r="F12">
-        <v>1.011451598290394</v>
+        <v>1.059083135644644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049044796581364</v>
+        <v>1.045319865778467</v>
       </c>
       <c r="J12">
-        <v>1.019334012839387</v>
+        <v>1.048902101882119</v>
       </c>
       <c r="K12">
-        <v>1.044777895370666</v>
+        <v>1.048277497051893</v>
       </c>
       <c r="L12">
-        <v>1.020835707959342</v>
+        <v>1.053405018646399</v>
       </c>
       <c r="M12">
-        <v>1.026362643881602</v>
+        <v>1.062610577499583</v>
       </c>
       <c r="N12">
-        <v>1.009419282684897</v>
+        <v>1.020036441885975</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9894042907213262</v>
+        <v>1.042362931443302</v>
       </c>
       <c r="D13">
-        <v>1.03041351381695</v>
+        <v>1.044733672217735</v>
       </c>
       <c r="E13">
-        <v>1.006110301331766</v>
+        <v>1.049899167606439</v>
       </c>
       <c r="F13">
-        <v>1.011769554408275</v>
+        <v>1.059143563718588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049171410101585</v>
+        <v>1.045337724284202</v>
       </c>
       <c r="J13">
-        <v>1.019569660462161</v>
+        <v>1.048945049043124</v>
       </c>
       <c r="K13">
-        <v>1.044938189503934</v>
+        <v>1.048303693500405</v>
       </c>
       <c r="L13">
-        <v>1.021077722562865</v>
+        <v>1.053450296754159</v>
       </c>
       <c r="M13">
-        <v>1.026631400683284</v>
+        <v>1.062661390343299</v>
       </c>
       <c r="N13">
-        <v>1.009501330006132</v>
+        <v>1.020051163494388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9905306329177365</v>
+        <v>1.042564319188635</v>
       </c>
       <c r="D14">
-        <v>1.031086662994652</v>
+        <v>1.044851215055228</v>
       </c>
       <c r="E14">
-        <v>1.007061133491344</v>
+        <v>1.050079295857106</v>
       </c>
       <c r="F14">
-        <v>1.012807929990141</v>
+        <v>1.059341571764583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049584495033446</v>
+        <v>1.045396193000855</v>
       </c>
       <c r="J14">
-        <v>1.020338949992128</v>
+        <v>1.049085747549703</v>
       </c>
       <c r="K14">
-        <v>1.045461446393136</v>
+        <v>1.048389497588844</v>
       </c>
       <c r="L14">
-        <v>1.021867900336008</v>
+        <v>1.053598641752998</v>
       </c>
       <c r="M14">
-        <v>1.027508940703433</v>
+        <v>1.062827874851468</v>
       </c>
       <c r="N14">
-        <v>1.009769171443942</v>
+        <v>1.020099387553528</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9912215306221946</v>
+        <v>1.042688397363681</v>
       </c>
       <c r="D15">
-        <v>1.031499763137651</v>
+        <v>1.044923630552433</v>
       </c>
       <c r="E15">
-        <v>1.007644588474538</v>
+        <v>1.050190284297395</v>
       </c>
       <c r="F15">
-        <v>1.01344510558061</v>
+        <v>1.05946357947448</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04983766292837</v>
+        <v>1.045432182298526</v>
       </c>
       <c r="J15">
-        <v>1.020810789692026</v>
+        <v>1.049172420442599</v>
       </c>
       <c r="K15">
-        <v>1.045782354510717</v>
+        <v>1.04844234095575</v>
       </c>
       <c r="L15">
-        <v>1.022352630129742</v>
+        <v>1.053690032768368</v>
       </c>
       <c r="M15">
-        <v>1.028047299767267</v>
+        <v>1.062930445690401</v>
       </c>
       <c r="N15">
-        <v>1.009933443984065</v>
+        <v>1.020129090512483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9951970349758889</v>
+        <v>1.043410534310463</v>
       </c>
       <c r="D16">
-        <v>1.03387953285237</v>
+        <v>1.045345019959963</v>
       </c>
       <c r="E16">
-        <v>1.011005035830734</v>
+        <v>1.050836369203837</v>
       </c>
       <c r="F16">
-        <v>1.017114995360771</v>
+        <v>1.060173846271019</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05129104658317</v>
+        <v>1.045641118064898</v>
       </c>
       <c r="J16">
-        <v>1.023525117503191</v>
+        <v>1.049676648883154</v>
       </c>
       <c r="K16">
-        <v>1.047627924776015</v>
+        <v>1.048749555271665</v>
       </c>
       <c r="L16">
-        <v>1.025142291081245</v>
+        <v>1.054221827514691</v>
       </c>
       <c r="M16">
-        <v>1.031146168397587</v>
+        <v>1.063527364922993</v>
       </c>
       <c r="N16">
-        <v>1.010878334687745</v>
+        <v>1.020301830008279</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9976516582650675</v>
+        <v>1.043863467541881</v>
       </c>
       <c r="D17">
-        <v>1.035351145397244</v>
+        <v>1.04560925775389</v>
       </c>
       <c r="E17">
-        <v>1.013082610897622</v>
+        <v>1.051241715959939</v>
       </c>
       <c r="F17">
-        <v>1.019383921484962</v>
+        <v>1.060619492381436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052185387267686</v>
+        <v>1.045771704650667</v>
       </c>
       <c r="J17">
-        <v>1.025200379858694</v>
+        <v>1.049992722690143</v>
       </c>
       <c r="K17">
-        <v>1.048766487493429</v>
+        <v>1.048941948150378</v>
       </c>
       <c r="L17">
-        <v>1.026865078072253</v>
+        <v>1.054555285184539</v>
       </c>
       <c r="M17">
-        <v>1.033060407193069</v>
+        <v>1.0639017202679</v>
       </c>
       <c r="N17">
-        <v>1.011461404089332</v>
+        <v>1.020410057735449</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.999069782023788</v>
+        <v>1.044127640416417</v>
       </c>
       <c r="D18">
-        <v>1.03620210179467</v>
+        <v>1.045763351042371</v>
       </c>
       <c r="E18">
-        <v>1.014283845810047</v>
+        <v>1.051478175039938</v>
       </c>
       <c r="F18">
-        <v>1.020695811986223</v>
+        <v>1.060879471771691</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052700960368366</v>
+        <v>1.045847703066942</v>
       </c>
       <c r="J18">
-        <v>1.026167977993946</v>
+        <v>1.050177005827336</v>
       </c>
       <c r="K18">
-        <v>1.049423888613582</v>
+        <v>1.049054054228606</v>
       </c>
       <c r="L18">
-        <v>1.027860493772784</v>
+        <v>1.054749741259766</v>
       </c>
       <c r="M18">
-        <v>1.034166621513133</v>
+        <v>1.064120048154124</v>
       </c>
       <c r="N18">
-        <v>1.011798129074022</v>
+        <v>1.020473139349047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9995510595027581</v>
+        <v>1.044217713973319</v>
       </c>
       <c r="D19">
-        <v>1.036491018545533</v>
+        <v>1.045815887400216</v>
       </c>
       <c r="E19">
-        <v>1.014691673980209</v>
+        <v>1.051558806106805</v>
       </c>
       <c r="F19">
-        <v>1.021141211969203</v>
+        <v>1.060968125100453</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052875741095665</v>
+        <v>1.045873587641954</v>
       </c>
       <c r="J19">
-        <v>1.026496311510486</v>
+        <v>1.050239828515716</v>
       </c>
       <c r="K19">
-        <v>1.049646925379653</v>
+        <v>1.04909226025685</v>
       </c>
       <c r="L19">
-        <v>1.028198328851018</v>
+        <v>1.054816038290779</v>
       </c>
       <c r="M19">
-        <v>1.034542091003532</v>
+        <v>1.064194487722455</v>
       </c>
       <c r="N19">
-        <v>1.011912381471235</v>
+        <v>1.020494640787354</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973897192778276</v>
+        <v>1.043814873698511</v>
       </c>
       <c r="D20">
-        <v>1.035194026465318</v>
+        <v>1.045580910859815</v>
       </c>
       <c r="E20">
-        <v>1.012860808855723</v>
+        <v>1.051198223283355</v>
       </c>
       <c r="F20">
-        <v>1.019141688989457</v>
+        <v>1.060571674479444</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052090065533634</v>
+        <v>1.045757711585418</v>
       </c>
       <c r="J20">
-        <v>1.025021635024895</v>
+        <v>1.049958818969827</v>
       </c>
       <c r="K20">
-        <v>1.048645027907437</v>
+        <v>1.048921317946409</v>
       </c>
       <c r="L20">
-        <v>1.026681224234491</v>
+        <v>1.054519512903205</v>
       </c>
       <c r="M20">
-        <v>1.032856103265</v>
+        <v>1.063861558306628</v>
       </c>
       <c r="N20">
-        <v>1.011399197045743</v>
+        <v>1.020398450661796</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9901995975400784</v>
+        <v>1.042505016241069</v>
       </c>
       <c r="D21">
-        <v>1.03088878222211</v>
+        <v>1.044816602977347</v>
       </c>
       <c r="E21">
-        <v>1.006781635958122</v>
+        <v>1.050026251436536</v>
       </c>
       <c r="F21">
-        <v>1.012502698692357</v>
+        <v>1.059283261578258</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049463133507449</v>
+        <v>1.045378982756061</v>
       </c>
       <c r="J21">
-        <v>1.020112862126875</v>
+        <v>1.049044318701882</v>
       </c>
       <c r="K21">
-        <v>1.045307671338816</v>
+        <v>1.048364235290241</v>
       </c>
       <c r="L21">
-        <v>1.021635657202814</v>
+        <v>1.053554959773283</v>
       </c>
       <c r="M21">
-        <v>1.027251012898414</v>
+        <v>1.062778850514942</v>
       </c>
       <c r="N21">
-        <v>1.00969045639873</v>
+        <v>1.020085188744314</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9855456693824595</v>
+        <v>1.041681307023302</v>
       </c>
       <c r="D22">
-        <v>1.028110437698893</v>
+        <v>1.044335766906729</v>
       </c>
       <c r="E22">
-        <v>1.002856234375707</v>
+        <v>1.049289626078082</v>
       </c>
       <c r="F22">
-        <v>1.008215901390678</v>
+        <v>1.058473553504301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04775306770669</v>
+        <v>1.045139323730915</v>
       </c>
       <c r="J22">
-        <v>1.016933653288693</v>
+        <v>1.048468633725878</v>
       </c>
       <c r="K22">
-        <v>1.043144859167519</v>
+        <v>1.048012955001823</v>
       </c>
       <c r="L22">
-        <v>1.018371320264937</v>
+        <v>1.052948104322394</v>
       </c>
       <c r="M22">
-        <v>1.023626337986054</v>
+        <v>1.062097858239547</v>
       </c>
       <c r="N22">
-        <v>1.008583470949944</v>
+        <v>1.019887814949242</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9880259719555986</v>
+        <v>1.042117985600371</v>
       </c>
       <c r="D23">
-        <v>1.029590305071669</v>
+        <v>1.044590694051275</v>
       </c>
       <c r="E23">
-        <v>1.004947347389565</v>
+        <v>1.049680102623566</v>
       </c>
       <c r="F23">
-        <v>1.010499530689971</v>
+        <v>1.058902760464788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048665327980048</v>
+        <v>1.045266517264441</v>
       </c>
       <c r="J23">
-        <v>1.018628162681812</v>
+        <v>1.048773882060394</v>
       </c>
       <c r="K23">
-        <v>1.044297728232877</v>
+        <v>1.048199271966157</v>
       </c>
       <c r="L23">
-        <v>1.02011087398115</v>
+        <v>1.053269848282374</v>
       </c>
       <c r="M23">
-        <v>1.025557758635588</v>
+        <v>1.062458889175416</v>
       </c>
       <c r="N23">
-        <v>1.009173514519867</v>
+        <v>1.019992485789249</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9975081201989558</v>
+        <v>1.043836831211808</v>
       </c>
       <c r="D24">
-        <v>1.035265044598348</v>
+        <v>1.045593719700386</v>
       </c>
       <c r="E24">
-        <v>1.012961064262065</v>
+        <v>1.051217875667538</v>
       </c>
       <c r="F24">
-        <v>1.019251178985001</v>
+        <v>1.060593281202342</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052133156075054</v>
+        <v>1.04576403497608</v>
       </c>
       <c r="J24">
-        <v>1.025102431574594</v>
+        <v>1.04997413884044</v>
       </c>
       <c r="K24">
-        <v>1.048699930938209</v>
+        <v>1.048930640197992</v>
       </c>
       <c r="L24">
-        <v>1.026764329022734</v>
+        <v>1.054535676993463</v>
       </c>
       <c r="M24">
-        <v>1.032948451256243</v>
+        <v>1.06387970585209</v>
       </c>
       <c r="N24">
-        <v>1.011427316119978</v>
+        <v>1.02040369554016</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007981726696829</v>
+        <v>1.045830856672921</v>
       </c>
       <c r="D25">
-        <v>1.04156150733278</v>
+        <v>1.046756411759193</v>
       </c>
       <c r="E25">
-        <v>1.021848725560361</v>
+        <v>1.053003444159809</v>
       </c>
       <c r="F25">
-        <v>1.028957981684473</v>
+        <v>1.062556669523207</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055920320581933</v>
+        <v>1.046334687418887</v>
       </c>
       <c r="J25">
-        <v>1.032243427633967</v>
+        <v>1.051363937744269</v>
       </c>
       <c r="K25">
-        <v>1.053547160760415</v>
+        <v>1.049774901628926</v>
       </c>
       <c r="L25">
-        <v>1.034117078409501</v>
+        <v>1.056002871603178</v>
       </c>
       <c r="M25">
-        <v>1.041122798967018</v>
+        <v>1.065527418116848</v>
       </c>
       <c r="N25">
-        <v>1.013911470365996</v>
+        <v>1.020879085891637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04742086062181</v>
+        <v>1.015956840599918</v>
       </c>
       <c r="D2">
-        <v>1.047682729875347</v>
+        <v>1.046372654403376</v>
       </c>
       <c r="E2">
-        <v>1.054428496499307</v>
+        <v>1.02864194838775</v>
       </c>
       <c r="F2">
-        <v>1.064124011899746</v>
+        <v>1.036378274563492</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046784447897723</v>
+        <v>1.058766627477417</v>
       </c>
       <c r="J2">
-        <v>1.052470020235141</v>
+        <v>1.037670539368286</v>
       </c>
       <c r="K2">
-        <v>1.050444683892116</v>
+        <v>1.057221645835392</v>
       </c>
       <c r="L2">
-        <v>1.057171733440442</v>
+        <v>1.039716171375407</v>
       </c>
       <c r="M2">
-        <v>1.066840797224516</v>
+        <v>1.047353039948281</v>
       </c>
       <c r="N2">
-        <v>1.021256813391929</v>
+        <v>1.015797526029126</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048575128183609</v>
+        <v>1.021549201280567</v>
       </c>
       <c r="D3">
-        <v>1.04835470381929</v>
+        <v>1.049753355108949</v>
       </c>
       <c r="E3">
-        <v>1.05546374015635</v>
+        <v>1.033419064971501</v>
       </c>
       <c r="F3">
-        <v>1.065262841562896</v>
+        <v>1.041597089076181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047107889716463</v>
+        <v>1.06073958739165</v>
       </c>
       <c r="J3">
-        <v>1.053271747076397</v>
+        <v>1.041469167452023</v>
       </c>
       <c r="K3">
-        <v>1.050928914006978</v>
+        <v>1.059786878003332</v>
       </c>
       <c r="L3">
-        <v>1.058019650951801</v>
+        <v>1.043641479228012</v>
       </c>
       <c r="M3">
-        <v>1.067793959835154</v>
+        <v>1.051724016889213</v>
       </c>
       <c r="N3">
-        <v>1.02153024344587</v>
+        <v>1.017116323994816</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049321926399497</v>
+        <v>1.025082411800004</v>
       </c>
       <c r="D4">
-        <v>1.048789227558983</v>
+        <v>1.051891683274585</v>
       </c>
       <c r="E4">
-        <v>1.056133861673451</v>
+        <v>1.036443070057958</v>
       </c>
       <c r="F4">
-        <v>1.066000116533871</v>
+        <v>1.044901089127084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047315733170069</v>
+        <v>1.061975063050006</v>
       </c>
       <c r="J4">
-        <v>1.053789880939701</v>
+        <v>1.043865563620971</v>
       </c>
       <c r="K4">
-        <v>1.051241274116438</v>
+        <v>1.061401702206688</v>
       </c>
       <c r="L4">
-        <v>1.058567953980018</v>
+        <v>1.046120689082512</v>
       </c>
       <c r="M4">
-        <v>1.068410508649997</v>
+        <v>1.054486195204108</v>
       </c>
       <c r="N4">
-        <v>1.02170678621664</v>
+        <v>1.017947615854943</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049635859937461</v>
+        <v>1.026548196307943</v>
       </c>
       <c r="D5">
-        <v>1.048971831544739</v>
+        <v>1.052779256538104</v>
       </c>
       <c r="E5">
-        <v>1.05641564091511</v>
+        <v>1.03769895669496</v>
       </c>
       <c r="F5">
-        <v>1.066310157472909</v>
+        <v>1.046273360952848</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047402764575952</v>
+        <v>1.062484906649903</v>
       </c>
       <c r="J5">
-        <v>1.05400755237561</v>
+        <v>1.044858835430499</v>
       </c>
       <c r="K5">
-        <v>1.051372357894704</v>
+        <v>1.062070134281584</v>
       </c>
       <c r="L5">
-        <v>1.058798375683013</v>
+        <v>1.047148979011727</v>
       </c>
       <c r="M5">
-        <v>1.06866965567364</v>
+        <v>1.055632208400463</v>
       </c>
       <c r="N5">
-        <v>1.021780912738851</v>
+        <v>1.01829200001314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049688569594716</v>
+        <v>1.026793184342397</v>
       </c>
       <c r="D6">
-        <v>1.04900248744228</v>
+        <v>1.05292762791412</v>
       </c>
       <c r="E6">
-        <v>1.05646295642859</v>
+        <v>1.037908940712344</v>
       </c>
       <c r="F6">
-        <v>1.066362220035322</v>
+        <v>1.046502810748023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047417357242262</v>
+        <v>1.062569960086214</v>
       </c>
       <c r="J6">
-        <v>1.05404409146522</v>
+        <v>1.045024794865022</v>
       </c>
       <c r="K6">
-        <v>1.051394353797608</v>
+        <v>1.062181764431266</v>
       </c>
       <c r="L6">
-        <v>1.058837059534752</v>
+        <v>1.047320830103379</v>
       </c>
       <c r="M6">
-        <v>1.068713164674435</v>
+        <v>1.055823754860374</v>
       </c>
       <c r="N6">
-        <v>1.021793353511289</v>
+        <v>1.01834953040284</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049326121273655</v>
+        <v>1.025102073493702</v>
       </c>
       <c r="D7">
-        <v>1.048791667797597</v>
+        <v>1.051903587272188</v>
       </c>
       <c r="E7">
-        <v>1.056137626584609</v>
+        <v>1.036459910962104</v>
       </c>
       <c r="F7">
-        <v>1.066004258959656</v>
+        <v>1.044919490295295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047316897447499</v>
+        <v>1.061981912742532</v>
       </c>
       <c r="J7">
-        <v>1.053792790072919</v>
+        <v>1.043878890732866</v>
       </c>
       <c r="K7">
-        <v>1.051243026578021</v>
+        <v>1.061410674407848</v>
       </c>
       <c r="L7">
-        <v>1.058571033219141</v>
+        <v>1.046134483307718</v>
       </c>
       <c r="M7">
-        <v>1.068413971581504</v>
+        <v>1.054501567237953</v>
       </c>
       <c r="N7">
-        <v>1.021707777060518</v>
+        <v>1.01795223729371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047810970082252</v>
+        <v>1.017865034841435</v>
       </c>
       <c r="D8">
-        <v>1.047909885858933</v>
+        <v>1.04752561669847</v>
       </c>
       <c r="E8">
-        <v>1.054778310484578</v>
+        <v>1.030270703263156</v>
       </c>
       <c r="F8">
-        <v>1.064508807170462</v>
+        <v>1.038157548598473</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046894055755357</v>
+        <v>1.059442110078993</v>
       </c>
       <c r="J8">
-        <v>1.052741099751065</v>
+        <v>1.038967404475189</v>
       </c>
       <c r="K8">
-        <v>1.05060853216073</v>
+        <v>1.058098121221399</v>
       </c>
       <c r="L8">
-        <v>1.057458365154212</v>
+        <v>1.041055674613353</v>
       </c>
       <c r="M8">
-        <v>1.067162966976887</v>
+        <v>1.048844315362314</v>
       </c>
       <c r="N8">
-        <v>1.02134930005775</v>
+        <v>1.016247905443908</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045140339139366</v>
+        <v>1.004416039392974</v>
       </c>
       <c r="D9">
-        <v>1.04635389842871</v>
+        <v>1.039414872517459</v>
       </c>
       <c r="E9">
-        <v>1.052384915845204</v>
+        <v>1.018818691010583</v>
       </c>
       <c r="F9">
-        <v>1.061876486195079</v>
+        <v>1.025648552591096</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046137888779833</v>
+        <v>1.054636744635993</v>
       </c>
       <c r="J9">
-        <v>1.050882987150078</v>
+        <v>1.029813813915428</v>
       </c>
       <c r="K9">
-        <v>1.04948306631263</v>
+        <v>1.051899274690268</v>
       </c>
       <c r="L9">
-        <v>1.055494954269451</v>
+        <v>1.031613652130646</v>
       </c>
       <c r="M9">
-        <v>1.0649568995161</v>
+        <v>1.038338767975093</v>
       </c>
       <c r="N9">
-        <v>1.020714668410616</v>
+        <v>1.013066541941546</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043359346374218</v>
+        <v>0.9949177626286074</v>
       </c>
       <c r="D10">
-        <v>1.045315154211427</v>
+        <v>1.033712208621711</v>
       </c>
       <c r="E10">
-        <v>1.050790564780289</v>
+        <v>1.010768793027948</v>
       </c>
       <c r="F10">
-        <v>1.060123489574345</v>
+        <v>1.016856996081555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045626337447466</v>
+        <v>1.051189143034954</v>
       </c>
       <c r="J10">
-        <v>1.049640919015335</v>
+        <v>1.023334482137012</v>
       </c>
       <c r="K10">
-        <v>1.04872779768237</v>
+        <v>1.047498336040546</v>
       </c>
       <c r="L10">
-        <v>1.05418413760006</v>
+        <v>1.024946298138166</v>
       </c>
       <c r="M10">
-        <v>1.063485055461225</v>
+        <v>1.030928419356764</v>
       </c>
       <c r="N10">
-        <v>1.020289593034575</v>
+        <v>1.010811978987546</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042588003868028</v>
+        <v>0.9906626945121458</v>
       </c>
       <c r="D11">
-        <v>1.044865038363987</v>
+        <v>1.031165613842169</v>
       </c>
       <c r="E11">
-        <v>1.05010048139519</v>
+        <v>1.007172645311541</v>
       </c>
       <c r="F11">
-        <v>1.059364860526004</v>
+        <v>1.012929708958861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045403064840874</v>
+        <v>1.049632899745123</v>
       </c>
       <c r="J11">
-        <v>1.049102292924089</v>
+        <v>1.020429142292654</v>
       </c>
       <c r="K11">
-        <v>1.048399585894056</v>
+        <v>1.04552278983142</v>
       </c>
       <c r="L11">
-        <v>1.053616087334093</v>
+        <v>1.021960551954133</v>
       </c>
       <c r="M11">
-        <v>1.062847454271467</v>
+        <v>1.027611840849302</v>
       </c>
       <c r="N11">
-        <v>1.020105057917146</v>
+        <v>1.009800572589221</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042301467154079</v>
+        <v>0.9890592951505741</v>
       </c>
       <c r="D12">
-        <v>1.044697795921619</v>
+        <v>1.030207407934005</v>
       </c>
       <c r="E12">
-        <v>1.049844195218853</v>
+        <v>1.005819150926085</v>
       </c>
       <c r="F12">
-        <v>1.059083135644644</v>
+        <v>1.011451598290394</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045319865778467</v>
+        <v>1.049044796581364</v>
       </c>
       <c r="J12">
-        <v>1.048902101882119</v>
+        <v>1.019334012839387</v>
       </c>
       <c r="K12">
-        <v>1.048277497051893</v>
+        <v>1.044777895370666</v>
       </c>
       <c r="L12">
-        <v>1.053405018646399</v>
+        <v>1.020835707959341</v>
       </c>
       <c r="M12">
-        <v>1.062610577499583</v>
+        <v>1.026362643881601</v>
       </c>
       <c r="N12">
-        <v>1.020036441885975</v>
+        <v>1.009419282684897</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042362931443302</v>
+        <v>0.989404290721326</v>
       </c>
       <c r="D13">
-        <v>1.044733672217735</v>
+        <v>1.03041351381695</v>
       </c>
       <c r="E13">
-        <v>1.049899167606439</v>
+        <v>1.006110301331766</v>
       </c>
       <c r="F13">
-        <v>1.059143563718588</v>
+        <v>1.011769554408274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045337724284202</v>
+        <v>1.049171410101584</v>
       </c>
       <c r="J13">
-        <v>1.048945049043124</v>
+        <v>1.019569660462161</v>
       </c>
       <c r="K13">
-        <v>1.048303693500405</v>
+        <v>1.044938189503934</v>
       </c>
       <c r="L13">
-        <v>1.053450296754159</v>
+        <v>1.021077722562864</v>
       </c>
       <c r="M13">
-        <v>1.062661390343299</v>
+        <v>1.026631400683283</v>
       </c>
       <c r="N13">
-        <v>1.020051163494388</v>
+        <v>1.009501330006132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042564319188635</v>
+        <v>0.9905306329177354</v>
       </c>
       <c r="D14">
-        <v>1.044851215055228</v>
+        <v>1.031086662994651</v>
       </c>
       <c r="E14">
-        <v>1.050079295857106</v>
+        <v>1.007061133491343</v>
       </c>
       <c r="F14">
-        <v>1.059341571764583</v>
+        <v>1.01280792999014</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045396193000855</v>
+        <v>1.049584495033445</v>
       </c>
       <c r="J14">
-        <v>1.049085747549703</v>
+        <v>1.020338949992127</v>
       </c>
       <c r="K14">
-        <v>1.048389497588844</v>
+        <v>1.045461446393135</v>
       </c>
       <c r="L14">
-        <v>1.053598641752998</v>
+        <v>1.021867900336007</v>
       </c>
       <c r="M14">
-        <v>1.062827874851468</v>
+        <v>1.027508940703432</v>
       </c>
       <c r="N14">
-        <v>1.020099387553528</v>
+        <v>1.009769171443941</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042688397363681</v>
+        <v>0.9912215306221941</v>
       </c>
       <c r="D15">
-        <v>1.044923630552433</v>
+        <v>1.03149976313765</v>
       </c>
       <c r="E15">
-        <v>1.050190284297395</v>
+        <v>1.007644588474537</v>
       </c>
       <c r="F15">
-        <v>1.05946357947448</v>
+        <v>1.013445105580609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045432182298526</v>
+        <v>1.049837662928369</v>
       </c>
       <c r="J15">
-        <v>1.049172420442599</v>
+        <v>1.020810789692026</v>
       </c>
       <c r="K15">
-        <v>1.04844234095575</v>
+        <v>1.045782354510716</v>
       </c>
       <c r="L15">
-        <v>1.053690032768368</v>
+        <v>1.022352630129742</v>
       </c>
       <c r="M15">
-        <v>1.062930445690401</v>
+        <v>1.028047299767267</v>
       </c>
       <c r="N15">
-        <v>1.020129090512483</v>
+        <v>1.009933443984065</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043410534310463</v>
+        <v>0.9951970349758885</v>
       </c>
       <c r="D16">
-        <v>1.045345019959963</v>
+        <v>1.033879532852371</v>
       </c>
       <c r="E16">
-        <v>1.050836369203837</v>
+        <v>1.011005035830733</v>
       </c>
       <c r="F16">
-        <v>1.060173846271019</v>
+        <v>1.017114995360771</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045641118064898</v>
+        <v>1.05129104658317</v>
       </c>
       <c r="J16">
-        <v>1.049676648883154</v>
+        <v>1.023525117503191</v>
       </c>
       <c r="K16">
-        <v>1.048749555271665</v>
+        <v>1.047627924776016</v>
       </c>
       <c r="L16">
-        <v>1.054221827514691</v>
+        <v>1.025142291081245</v>
       </c>
       <c r="M16">
-        <v>1.063527364922993</v>
+        <v>1.031146168397586</v>
       </c>
       <c r="N16">
-        <v>1.020301830008279</v>
+        <v>1.010878334687745</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043863467541881</v>
+        <v>0.9976516582650672</v>
       </c>
       <c r="D17">
-        <v>1.04560925775389</v>
+        <v>1.035351145397244</v>
       </c>
       <c r="E17">
-        <v>1.051241715959939</v>
+        <v>1.013082610897622</v>
       </c>
       <c r="F17">
-        <v>1.060619492381436</v>
+        <v>1.019383921484962</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045771704650667</v>
+        <v>1.052185387267685</v>
       </c>
       <c r="J17">
-        <v>1.049992722690143</v>
+        <v>1.025200379858693</v>
       </c>
       <c r="K17">
-        <v>1.048941948150378</v>
+        <v>1.04876648749343</v>
       </c>
       <c r="L17">
-        <v>1.054555285184539</v>
+        <v>1.026865078072253</v>
       </c>
       <c r="M17">
-        <v>1.0639017202679</v>
+        <v>1.033060407193069</v>
       </c>
       <c r="N17">
-        <v>1.020410057735449</v>
+        <v>1.011461404089332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044127640416417</v>
+        <v>0.9990697820237885</v>
       </c>
       <c r="D18">
-        <v>1.045763351042371</v>
+        <v>1.03620210179467</v>
       </c>
       <c r="E18">
-        <v>1.051478175039938</v>
+        <v>1.014283845810048</v>
       </c>
       <c r="F18">
-        <v>1.060879471771691</v>
+        <v>1.020695811986223</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045847703066942</v>
+        <v>1.052700960368366</v>
       </c>
       <c r="J18">
-        <v>1.050177005827336</v>
+        <v>1.026167977993946</v>
       </c>
       <c r="K18">
-        <v>1.049054054228606</v>
+        <v>1.049423888613582</v>
       </c>
       <c r="L18">
-        <v>1.054749741259766</v>
+        <v>1.027860493772785</v>
       </c>
       <c r="M18">
-        <v>1.064120048154124</v>
+        <v>1.034166621513134</v>
       </c>
       <c r="N18">
-        <v>1.020473139349047</v>
+        <v>1.011798129074022</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044217713973319</v>
+        <v>0.9995510595027568</v>
       </c>
       <c r="D19">
-        <v>1.045815887400216</v>
+        <v>1.036491018545533</v>
       </c>
       <c r="E19">
-        <v>1.051558806106805</v>
+        <v>1.014691673980208</v>
       </c>
       <c r="F19">
-        <v>1.060968125100453</v>
+        <v>1.021141211969202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045873587641954</v>
+        <v>1.052875741095665</v>
       </c>
       <c r="J19">
-        <v>1.050239828515716</v>
+        <v>1.026496311510485</v>
       </c>
       <c r="K19">
-        <v>1.04909226025685</v>
+        <v>1.049646925379653</v>
       </c>
       <c r="L19">
-        <v>1.054816038290779</v>
+        <v>1.028198328851017</v>
       </c>
       <c r="M19">
-        <v>1.064194487722455</v>
+        <v>1.034542091003531</v>
       </c>
       <c r="N19">
-        <v>1.020494640787354</v>
+        <v>1.011912381471235</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043814873698511</v>
+        <v>0.9973897192778284</v>
       </c>
       <c r="D20">
-        <v>1.045580910859815</v>
+        <v>1.035194026465319</v>
       </c>
       <c r="E20">
-        <v>1.051198223283355</v>
+        <v>1.012860808855723</v>
       </c>
       <c r="F20">
-        <v>1.060571674479444</v>
+        <v>1.019141688989457</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045757711585418</v>
+        <v>1.052090065533634</v>
       </c>
       <c r="J20">
-        <v>1.049958818969827</v>
+        <v>1.025021635024896</v>
       </c>
       <c r="K20">
-        <v>1.048921317946409</v>
+        <v>1.048645027907437</v>
       </c>
       <c r="L20">
-        <v>1.054519512903205</v>
+        <v>1.026681224234492</v>
       </c>
       <c r="M20">
-        <v>1.063861558306628</v>
+        <v>1.032856103265</v>
       </c>
       <c r="N20">
-        <v>1.020398450661796</v>
+        <v>1.011399197045743</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042505016241069</v>
+        <v>0.9901995975400787</v>
       </c>
       <c r="D21">
-        <v>1.044816602977347</v>
+        <v>1.03088878222211</v>
       </c>
       <c r="E21">
-        <v>1.050026251436536</v>
+        <v>1.006781635958123</v>
       </c>
       <c r="F21">
-        <v>1.059283261578258</v>
+        <v>1.012502698692357</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045378982756061</v>
+        <v>1.049463133507449</v>
       </c>
       <c r="J21">
-        <v>1.049044318701882</v>
+        <v>1.020112862126876</v>
       </c>
       <c r="K21">
-        <v>1.048364235290241</v>
+        <v>1.045307671338817</v>
       </c>
       <c r="L21">
-        <v>1.053554959773283</v>
+        <v>1.021635657202815</v>
       </c>
       <c r="M21">
-        <v>1.062778850514942</v>
+        <v>1.027251012898415</v>
       </c>
       <c r="N21">
-        <v>1.020085188744314</v>
+        <v>1.00969045639873</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041681307023302</v>
+        <v>0.9855456693824592</v>
       </c>
       <c r="D22">
-        <v>1.044335766906729</v>
+        <v>1.028110437698893</v>
       </c>
       <c r="E22">
-        <v>1.049289626078082</v>
+        <v>1.002856234375707</v>
       </c>
       <c r="F22">
-        <v>1.058473553504301</v>
+        <v>1.008215901390678</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045139323730915</v>
+        <v>1.04775306770669</v>
       </c>
       <c r="J22">
-        <v>1.048468633725878</v>
+        <v>1.016933653288693</v>
       </c>
       <c r="K22">
-        <v>1.048012955001823</v>
+        <v>1.04314485916752</v>
       </c>
       <c r="L22">
-        <v>1.052948104322394</v>
+        <v>1.018371320264936</v>
       </c>
       <c r="M22">
-        <v>1.062097858239547</v>
+        <v>1.023626337986054</v>
       </c>
       <c r="N22">
-        <v>1.019887814949242</v>
+        <v>1.008583470949944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042117985600371</v>
+        <v>0.9880259719555986</v>
       </c>
       <c r="D23">
-        <v>1.044590694051275</v>
+        <v>1.029590305071669</v>
       </c>
       <c r="E23">
-        <v>1.049680102623566</v>
+        <v>1.004947347389565</v>
       </c>
       <c r="F23">
-        <v>1.058902760464788</v>
+        <v>1.010499530689971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045266517264441</v>
+        <v>1.048665327980048</v>
       </c>
       <c r="J23">
-        <v>1.048773882060394</v>
+        <v>1.018628162681812</v>
       </c>
       <c r="K23">
-        <v>1.048199271966157</v>
+        <v>1.044297728232878</v>
       </c>
       <c r="L23">
-        <v>1.053269848282374</v>
+        <v>1.02011087398115</v>
       </c>
       <c r="M23">
-        <v>1.062458889175416</v>
+        <v>1.025557758635588</v>
       </c>
       <c r="N23">
-        <v>1.019992485789249</v>
+        <v>1.009173514519867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043836831211808</v>
+        <v>0.9975081201989552</v>
       </c>
       <c r="D24">
-        <v>1.045593719700386</v>
+        <v>1.035265044598347</v>
       </c>
       <c r="E24">
-        <v>1.051217875667538</v>
+        <v>1.012961064262064</v>
       </c>
       <c r="F24">
-        <v>1.060593281202342</v>
+        <v>1.019251178985001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04576403497608</v>
+        <v>1.052133156075053</v>
       </c>
       <c r="J24">
-        <v>1.04997413884044</v>
+        <v>1.025102431574594</v>
       </c>
       <c r="K24">
-        <v>1.048930640197992</v>
+        <v>1.048699930938209</v>
       </c>
       <c r="L24">
-        <v>1.054535676993463</v>
+        <v>1.026764329022733</v>
       </c>
       <c r="M24">
-        <v>1.06387970585209</v>
+        <v>1.032948451256243</v>
       </c>
       <c r="N24">
-        <v>1.02040369554016</v>
+        <v>1.011427316119978</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045830856672921</v>
+        <v>1.007981726696828</v>
       </c>
       <c r="D25">
-        <v>1.046756411759193</v>
+        <v>1.04156150733278</v>
       </c>
       <c r="E25">
-        <v>1.053003444159809</v>
+        <v>1.02184872556036</v>
       </c>
       <c r="F25">
-        <v>1.062556669523207</v>
+        <v>1.028957981684473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046334687418887</v>
+        <v>1.055920320581933</v>
       </c>
       <c r="J25">
-        <v>1.051363937744269</v>
+        <v>1.032243427633966</v>
       </c>
       <c r="K25">
-        <v>1.049774901628926</v>
+        <v>1.053547160760414</v>
       </c>
       <c r="L25">
-        <v>1.056002871603178</v>
+        <v>1.0341170784095</v>
       </c>
       <c r="M25">
-        <v>1.065527418116848</v>
+        <v>1.041122798967018</v>
       </c>
       <c r="N25">
-        <v>1.020879085891637</v>
+        <v>1.013911470365995</v>
       </c>
     </row>
   </sheetData>
